--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1973.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1973.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.358603826737999</v>
+        <v>0.9198808073997498</v>
       </c>
       <c r="B1">
-        <v>2.791421718553969</v>
+        <v>1.76668381690979</v>
       </c>
       <c r="C1">
-        <v>10.12800207315955</v>
+        <v>8.63957405090332</v>
       </c>
       <c r="D1">
-        <v>1.98827095471234</v>
+        <v>2.020910978317261</v>
       </c>
       <c r="E1">
-        <v>1.030122737430482</v>
+        <v>1.185853600502014</v>
       </c>
     </row>
   </sheetData>
